--- a/tests/models/substation_tx_230kv/input/model_ss_230kv.xlsx
+++ b/tests/models/substation_tx_230kv/input/model_ss_230kv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/sira/tests/models/substation_tx_230kv/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\sira\tests\models\substation_tx_230kv\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B2FFC6-371F-6E47-A2F3-0CAC71C32DAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C384EC2-639D-40E7-AD61-76EA75BC0545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="28740" windowHeight="16520" tabRatio="707" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="707" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="system_meta" sheetId="15" r:id="rId1"/>
@@ -61,8 +61,17 @@
     <definedName name="RESTORATION_TIME_UNIT">VALIDATION_TABLES!$C$2:$C$6</definedName>
     <definedName name="SYSTEM_CLASSES">VALIDATION_TABLES!$B$2:$B$9</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -933,12 +942,6 @@
     <t>damage_state_def</t>
   </si>
   <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>median</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -961,9 +964,6 @@
   </si>
   <si>
     <t>Normal</t>
-  </si>
-  <si>
-    <t>location</t>
   </si>
   <si>
     <t>INFRASTRUCTURE_LEVEL</t>
@@ -1279,6 +1279,15 @@
   </si>
   <si>
     <t>recovery_param2</t>
+  </si>
+  <si>
+    <t>ds_shape</t>
+  </si>
+  <si>
+    <t>ds_scale</t>
+  </si>
+  <si>
+    <t>ds_location</t>
   </si>
 </sst>
 </file>
@@ -4747,218 +4756,218 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" style="167" customWidth="1"/>
+    <col min="1" max="1" width="39.69921875" style="167" customWidth="1"/>
     <col min="2" max="2" width="37.5" style="167" customWidth="1"/>
-    <col min="3" max="3" width="59.83203125" style="167" customWidth="1"/>
+    <col min="3" max="3" width="59.796875" style="167" customWidth="1"/>
     <col min="4" max="16384" width="9" style="167"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="166" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="166" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" s="166" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="171" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="168" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="166" t="s">
+      <c r="B2" s="169" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="170"/>
+    </row>
+    <row r="3" spans="1:3" s="171" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="172" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="169" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="170"/>
+    </row>
+    <row r="4" spans="1:3" s="171" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="172" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="166" t="s">
+      <c r="B4" s="169" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="170"/>
+    </row>
+    <row r="5" spans="1:3" s="171" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="172" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="171" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="168" t="s">
+      <c r="B5" s="173" t="s">
         <v>333</v>
       </c>
-      <c r="B2" s="169" t="s">
-        <v>342</v>
-      </c>
-      <c r="C2" s="170"/>
-    </row>
-    <row r="3" spans="1:3" s="171" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="172" t="s">
-        <v>286</v>
-      </c>
-      <c r="B3" s="169" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="170"/>
-    </row>
-    <row r="4" spans="1:3" s="171" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="172" t="s">
+      <c r="C5" s="170"/>
+    </row>
+    <row r="6" spans="1:3" s="171" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="172" t="s">
         <v>334</v>
       </c>
-      <c r="B4" s="169" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="170"/>
-    </row>
-    <row r="5" spans="1:3" s="171" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="172" t="s">
+      <c r="B6" s="169" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="170"/>
+    </row>
+    <row r="7" spans="1:3" s="171" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="172" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="169" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="170"/>
+    </row>
+    <row r="8" spans="1:3" s="171" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="172" t="s">
         <v>335</v>
       </c>
-      <c r="B5" s="173" t="s">
+      <c r="B8" s="169" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="170"/>
-    </row>
-    <row r="6" spans="1:3" s="171" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="172" t="s">
+      <c r="C8" s="170"/>
+    </row>
+    <row r="9" spans="1:3" s="171" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="172" t="s">
         <v>337</v>
       </c>
-      <c r="B6" s="169" t="s">
-        <v>297</v>
-      </c>
-      <c r="C6" s="170"/>
-    </row>
-    <row r="7" spans="1:3" s="171" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="172" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="169" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="170"/>
-    </row>
-    <row r="8" spans="1:3" s="171" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="172" t="s">
+      <c r="B9" s="169" t="s">
         <v>338</v>
       </c>
-      <c r="B8" s="169" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" s="170"/>
-    </row>
-    <row r="9" spans="1:3" s="171" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="172" t="s">
-        <v>340</v>
-      </c>
-      <c r="B9" s="169" t="s">
-        <v>341</v>
-      </c>
       <c r="C9" s="170"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="174"/>
       <c r="B10" s="174"/>
       <c r="C10" s="174"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="174"/>
       <c r="B11" s="174"/>
       <c r="C11" s="174"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="174"/>
       <c r="B12" s="174"/>
       <c r="C12" s="174"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="174"/>
       <c r="B13" s="174"/>
       <c r="C13" s="174"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="174"/>
       <c r="B14" s="174"/>
       <c r="C14" s="174"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="174"/>
       <c r="B15" s="174"/>
       <c r="C15" s="174"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="174"/>
       <c r="B16" s="174"/>
       <c r="C16" s="174"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="174"/>
       <c r="B17" s="174"/>
       <c r="C17" s="174"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="174"/>
       <c r="B18" s="174"/>
       <c r="C18" s="174"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="174"/>
       <c r="B19" s="174"/>
       <c r="C19" s="174"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="174"/>
       <c r="B20" s="174"/>
       <c r="C20" s="174"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="174"/>
       <c r="B21" s="174"/>
       <c r="C21" s="174"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="174"/>
       <c r="B22" s="174"/>
       <c r="C22" s="174"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="174"/>
       <c r="B23" s="174"/>
       <c r="C23" s="174"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="174"/>
       <c r="B24" s="174"/>
       <c r="C24" s="174"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="174"/>
       <c r="B25" s="174"/>
       <c r="C25" s="174"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="174"/>
       <c r="B26" s="174"/>
       <c r="C26" s="174"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="174"/>
       <c r="B27" s="174"/>
       <c r="C27" s="174"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="174"/>
       <c r="B28" s="174"/>
       <c r="C28" s="174"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="174"/>
       <c r="B29" s="174"/>
       <c r="C29" s="174"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="174"/>
       <c r="B30" s="174"/>
       <c r="C30" s="174"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="174"/>
       <c r="B31" s="174"/>
       <c r="C31" s="174"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="174"/>
       <c r="B32" s="174"/>
       <c r="C32" s="174"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="174"/>
       <c r="B33" s="174"/>
       <c r="C33" s="174"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="174"/>
       <c r="B34" s="174"/>
       <c r="C34" s="174"/>
@@ -4993,20 +5002,20 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="101" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="101" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="101" customWidth="1"/>
-    <col min="7" max="7" width="29.1640625" style="101" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" style="101" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="1" width="47.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" style="101" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.796875" style="101" customWidth="1"/>
+    <col min="6" max="6" width="24.296875" style="101" customWidth="1"/>
+    <col min="7" max="7" width="29.19921875" style="101" customWidth="1"/>
+    <col min="8" max="8" width="31.19921875" style="101" customWidth="1"/>
+    <col min="9" max="16384" width="10.796875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>9</v>
       </c>
@@ -5019,7 +5028,7 @@
       <c r="G1" s="91"/>
       <c r="H1" s="91"/>
     </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
         <v>11</v>
       </c>
@@ -5031,7 +5040,7 @@
       <c r="G2" s="91"/>
       <c r="H2" s="91"/>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92"/>
       <c r="B3" s="93"/>
       <c r="C3" s="92"/>
@@ -5041,7 +5050,7 @@
       <c r="G3" s="93"/>
       <c r="H3" s="93"/>
     </row>
-    <row r="4" spans="1:8" s="94" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="94" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="115" t="s">
         <v>0</v>
       </c>
@@ -5067,7 +5076,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>168</v>
       </c>
@@ -5092,7 +5101,7 @@
       <c r="G5" s="102"/>
       <c r="H5" s="102"/>
     </row>
-    <row r="6" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="s">
         <v>169</v>
       </c>
@@ -5117,7 +5126,7 @@
       <c r="G6" s="102"/>
       <c r="H6" s="102"/>
     </row>
-    <row r="7" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>16</v>
       </c>
@@ -5142,7 +5151,7 @@
       <c r="G7" s="102"/>
       <c r="H7" s="102"/>
     </row>
-    <row r="8" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="s">
         <v>18</v>
       </c>
@@ -5167,7 +5176,7 @@
       <c r="G8" s="102"/>
       <c r="H8" s="102"/>
     </row>
-    <row r="9" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
         <v>19</v>
       </c>
@@ -5192,7 +5201,7 @@
       <c r="G9" s="102"/>
       <c r="H9" s="102"/>
     </row>
-    <row r="10" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="95" t="s">
         <v>13</v>
       </c>
@@ -5217,7 +5226,7 @@
       <c r="G10" s="102"/>
       <c r="H10" s="102"/>
     </row>
-    <row r="11" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
         <v>24</v>
       </c>
@@ -5242,7 +5251,7 @@
       <c r="G11" s="102"/>
       <c r="H11" s="102"/>
     </row>
-    <row r="12" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
         <v>170</v>
       </c>
@@ -5267,7 +5276,7 @@
       <c r="G12" s="102"/>
       <c r="H12" s="102"/>
     </row>
-    <row r="13" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="95" t="s">
         <v>171</v>
       </c>
@@ -5292,7 +5301,7 @@
       <c r="G13" s="102"/>
       <c r="H13" s="102"/>
     </row>
-    <row r="14" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="95" t="s">
         <v>172</v>
       </c>
@@ -5317,7 +5326,7 @@
       <c r="G14" s="102"/>
       <c r="H14" s="102"/>
     </row>
-    <row r="15" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="95" t="s">
         <v>173</v>
       </c>
@@ -5342,7 +5351,7 @@
       <c r="G15" s="102"/>
       <c r="H15" s="102"/>
     </row>
-    <row r="16" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="95" t="s">
         <v>174</v>
       </c>
@@ -5367,7 +5376,7 @@
       <c r="G16" s="102"/>
       <c r="H16" s="102"/>
     </row>
-    <row r="17" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="95" t="s">
         <v>175</v>
       </c>
@@ -5392,7 +5401,7 @@
       <c r="G17" s="102"/>
       <c r="H17" s="102"/>
     </row>
-    <row r="18" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="99" t="s">
         <v>17</v>
       </c>
@@ -5417,7 +5426,7 @@
       <c r="G18" s="103"/>
       <c r="H18" s="103"/>
     </row>
-    <row r="19" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="100" t="s">
         <v>166</v>
       </c>
@@ -5442,7 +5451,7 @@
       <c r="G19" s="104"/>
       <c r="H19" s="104"/>
     </row>
-    <row r="20" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="99" t="s">
         <v>224</v>
       </c>
@@ -5454,7 +5463,7 @@
       <c r="G20" s="104"/>
       <c r="H20" s="104"/>
     </row>
-    <row r="21" spans="1:8" s="121" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" s="121" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="118" t="s">
         <v>225</v>
       </c>
@@ -5477,87 +5486,87 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:A18 B5:C21">
-    <cfRule type="cellIs" dxfId="17" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E20">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G18">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G21">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H18">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:H21">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D20">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F12 F14:F20">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5577,93 +5586,93 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="30.83203125" style="165" customWidth="1"/>
+    <col min="1" max="4" width="30.796875" style="165" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="163" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="163" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="163" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="163" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="163" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="164" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="B2" s="164" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="163" t="s">
+      <c r="C2" s="164" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="164" t="s">
+      <c r="D2" s="164" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="164" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="164" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="B3" s="164" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="164" t="s">
+      <c r="C3" s="164" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="164" t="s">
+      <c r="D3" s="164" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="164" t="s">
-        <v>295</v>
-      </c>
-      <c r="C3" s="164" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="164" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="164"/>
       <c r="B4" s="164" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C4" s="164" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D4" s="164"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="164"/>
       <c r="B5" s="164" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C5" s="164" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D5" s="164"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="164"/>
       <c r="B6" s="164" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C6" s="164"/>
       <c r="D6" s="164"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="164"/>
       <c r="B7" s="164" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C7" s="164"/>
       <c r="D7" s="164"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="164"/>
       <c r="B8" s="164" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C8" s="164"/>
       <c r="D8" s="164"/>
@@ -5681,70 +5690,70 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.5" style="177" customWidth="1"/>
-    <col min="2" max="2" width="65.83203125" style="177" customWidth="1"/>
-    <col min="3" max="3" width="85.1640625" style="177" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="177"/>
+    <col min="2" max="2" width="65.796875" style="177" customWidth="1"/>
+    <col min="3" max="3" width="85.19921875" style="177" customWidth="1"/>
+    <col min="4" max="16384" width="8.796875" style="177"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="167" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="167" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="166" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B1" s="166" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C1" s="166" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="174" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="174" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="175" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="176" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C2" s="176" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="174" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="174" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="175" t="s">
         <v>270</v>
       </c>
       <c r="B3" s="176" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C3" s="176" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="174" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="174" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="175" t="s">
         <v>271</v>
       </c>
       <c r="B4" s="176" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C4" s="176" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="174" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="174" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="175" t="s">
         <v>272</v>
       </c>
       <c r="B5" s="176" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="176" t="s">
         <v>362</v>
       </c>
-      <c r="C5" s="176" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="174" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" s="174" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="175" t="s">
         <v>273</v>
       </c>
@@ -5752,15 +5761,15 @@
         <v>10</v>
       </c>
       <c r="C6" s="176" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="174" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="174" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="175" t="s">
         <v>274</v>
       </c>
       <c r="B7" s="176" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="176"/>
     </row>
@@ -5781,20 +5790,20 @@
       <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="23.796875" style="34" customWidth="1"/>
     <col min="2" max="2" width="44" style="34" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="29.69921875" style="34" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="34" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="34" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="34" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="34" customWidth="1"/>
-    <col min="8" max="9" width="13.83203125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="16.296875" style="34" customWidth="1"/>
+    <col min="7" max="7" width="19.296875" style="34" customWidth="1"/>
+    <col min="8" max="9" width="13.796875" style="34" customWidth="1"/>
     <col min="10" max="16384" width="11" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="63" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="63" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>247</v>
       </c>
@@ -5814,24 +5823,24 @@
         <v>12</v>
       </c>
       <c r="G1" s="105" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H1" s="105" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I1" s="105" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -5850,15 +5859,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
@@ -5877,15 +5886,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>253</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D4" s="4">
         <v>0</v>
@@ -5904,15 +5913,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -5931,15 +5940,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>253</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -5958,7 +5967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>40</v>
       </c>
@@ -5987,7 +5996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>41</v>
       </c>
@@ -6016,7 +6025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>42</v>
       </c>
@@ -6045,7 +6054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>43</v>
       </c>
@@ -6074,7 +6083,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>44</v>
       </c>
@@ -6103,7 +6112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>45</v>
       </c>
@@ -6132,7 +6141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>46</v>
       </c>
@@ -6161,7 +6170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>208</v>
       </c>
@@ -6187,7 +6196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>209</v>
       </c>
@@ -6213,9 +6222,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>168</v>
@@ -6242,9 +6251,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>168</v>
@@ -6271,9 +6280,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>168</v>
@@ -6300,9 +6309,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>168</v>
@@ -6329,9 +6338,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>168</v>
@@ -6358,7 +6367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>210</v>
       </c>
@@ -6387,7 +6396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>211</v>
       </c>
@@ -6416,7 +6425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>47</v>
       </c>
@@ -6445,7 +6454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>48</v>
       </c>
@@ -6474,7 +6483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>49</v>
       </c>
@@ -6503,7 +6512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>50</v>
       </c>
@@ -6532,7 +6541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>51</v>
       </c>
@@ -6561,7 +6570,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>52</v>
       </c>
@@ -6590,7 +6599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>53</v>
       </c>
@@ -6619,7 +6628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>54</v>
       </c>
@@ -6648,7 +6657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>55</v>
       </c>
@@ -6677,7 +6686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
         <v>56</v>
       </c>
@@ -6706,7 +6715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
         <v>57</v>
       </c>
@@ -6735,7 +6744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>58</v>
       </c>
@@ -6764,7 +6773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>59</v>
       </c>
@@ -6793,7 +6802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
         <v>60</v>
       </c>
@@ -6822,7 +6831,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
         <v>61</v>
       </c>
@@ -6851,7 +6860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
         <v>62</v>
       </c>
@@ -6880,7 +6889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
         <v>63</v>
       </c>
@@ -6909,7 +6918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20" t="s">
         <v>64</v>
       </c>
@@ -6938,7 +6947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>65</v>
       </c>
@@ -6967,7 +6976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>66</v>
       </c>
@@ -6996,7 +7005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20" t="s">
         <v>67</v>
       </c>
@@ -7025,7 +7034,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20" t="s">
         <v>68</v>
       </c>
@@ -7054,7 +7063,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20" t="s">
         <v>69</v>
       </c>
@@ -7083,7 +7092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20" t="s">
         <v>70</v>
       </c>
@@ -7112,7 +7121,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20" t="s">
         <v>71</v>
       </c>
@@ -7141,7 +7150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20" t="s">
         <v>72</v>
       </c>
@@ -7170,7 +7179,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20" t="s">
         <v>73</v>
       </c>
@@ -7199,7 +7208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20" t="s">
         <v>74</v>
       </c>
@@ -7228,7 +7237,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20" t="s">
         <v>75</v>
       </c>
@@ -7257,7 +7266,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
         <v>76</v>
       </c>
@@ -7286,7 +7295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
         <v>77</v>
       </c>
@@ -7315,7 +7324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
         <v>78</v>
       </c>
@@ -7344,7 +7353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
         <v>79</v>
       </c>
@@ -7373,7 +7382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
         <v>80</v>
       </c>
@@ -7402,7 +7411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
         <v>81</v>
       </c>
@@ -7431,7 +7440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
         <v>82</v>
       </c>
@@ -7460,7 +7469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
         <v>179</v>
       </c>
@@ -7489,7 +7498,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
         <v>180</v>
       </c>
@@ -7518,7 +7527,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="17" t="s">
         <v>83</v>
       </c>
@@ -7547,7 +7556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>84</v>
       </c>
@@ -7576,7 +7585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>85</v>
       </c>
@@ -7605,7 +7614,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="12" t="s">
         <v>86</v>
       </c>
@@ -7634,7 +7643,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
         <v>87</v>
       </c>
@@ -7663,7 +7672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="12" t="s">
         <v>88</v>
       </c>
@@ -7692,7 +7701,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12" t="s">
         <v>89</v>
       </c>
@@ -7721,7 +7730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
         <v>90</v>
       </c>
@@ -7750,7 +7759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="12" t="s">
         <v>91</v>
       </c>
@@ -7779,7 +7788,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="12" t="s">
         <v>92</v>
       </c>
@@ -7808,7 +7817,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12" t="s">
         <v>93</v>
       </c>
@@ -7837,7 +7846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
         <v>94</v>
       </c>
@@ -7866,7 +7875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12" t="s">
         <v>95</v>
       </c>
@@ -7895,7 +7904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>96</v>
       </c>
@@ -7924,7 +7933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>97</v>
       </c>
@@ -7953,7 +7962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>98</v>
       </c>
@@ -7982,7 +7991,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12" t="s">
         <v>99</v>
       </c>
@@ -8011,7 +8020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>100</v>
       </c>
@@ -8040,7 +8049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>101</v>
       </c>
@@ -8069,7 +8078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12" t="s">
         <v>102</v>
       </c>
@@ -8098,7 +8107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12" t="s">
         <v>103</v>
       </c>
@@ -8127,7 +8136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
         <v>104</v>
       </c>
@@ -8156,7 +8165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
         <v>105</v>
       </c>
@@ -8185,7 +8194,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
         <v>106</v>
       </c>
@@ -8214,7 +8223,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="12" t="s">
         <v>107</v>
       </c>
@@ -8243,7 +8252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>108</v>
       </c>
@@ -8272,7 +8281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>109</v>
       </c>
@@ -8301,7 +8310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
         <v>110</v>
       </c>
@@ -8330,7 +8339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>111</v>
       </c>
@@ -8359,7 +8368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>112</v>
       </c>
@@ -8388,7 +8397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="12" t="s">
         <v>113</v>
       </c>
@@ -8417,7 +8426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="12" t="s">
         <v>114</v>
       </c>
@@ -8446,7 +8455,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
         <v>115</v>
       </c>
@@ -8475,7 +8484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>116</v>
       </c>
@@ -8504,7 +8513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
         <v>117</v>
       </c>
@@ -8533,7 +8542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
         <v>118</v>
       </c>
@@ -8562,7 +8571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
         <v>119</v>
       </c>
@@ -8591,7 +8600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
         <v>120</v>
       </c>
@@ -8620,7 +8629,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
         <v>121</v>
       </c>
@@ -8649,7 +8658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
         <v>122</v>
       </c>
@@ -8678,7 +8687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>123</v>
       </c>
@@ -8707,7 +8716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
         <v>124</v>
       </c>
@@ -8736,7 +8745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="12" t="s">
         <v>125</v>
       </c>
@@ -8765,7 +8774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
         <v>126</v>
       </c>
@@ -8794,7 +8803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
         <v>127</v>
       </c>
@@ -8823,7 +8832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
         <v>128</v>
       </c>
@@ -8852,7 +8861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
         <v>129</v>
       </c>
@@ -8881,7 +8890,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="12" t="s">
         <v>130</v>
       </c>
@@ -8910,7 +8919,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="12" t="s">
         <v>131</v>
       </c>
@@ -8939,7 +8948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="20" t="s">
         <v>132</v>
       </c>
@@ -8968,7 +8977,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="14" t="s">
         <v>178</v>
       </c>
@@ -8997,7 +9006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="12" t="s">
         <v>31</v>
       </c>
@@ -9005,7 +9014,7 @@
         <v>13</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D112" s="13">
         <v>3.5125103911765737E-4</v>
@@ -9026,7 +9035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
         <v>32</v>
       </c>
@@ -9034,7 +9043,7 @@
         <v>13</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D113" s="13">
         <v>3.5125103911765737E-4</v>
@@ -9055,7 +9064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
         <v>33</v>
       </c>
@@ -9063,7 +9072,7 @@
         <v>13</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D114" s="13">
         <v>3.5125103911765737E-4</v>
@@ -9084,7 +9093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>34</v>
       </c>
@@ -9092,7 +9101,7 @@
         <v>13</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D115" s="13">
         <v>3.5125103911765737E-4</v>
@@ -9113,7 +9122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="12" t="s">
         <v>35</v>
       </c>
@@ -9121,7 +9130,7 @@
         <v>13</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D116" s="13">
         <v>3.5125103911765737E-4</v>
@@ -9142,7 +9151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="12" t="s">
         <v>36</v>
       </c>
@@ -9150,7 +9159,7 @@
         <v>13</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D117" s="13">
         <v>3.5125103911765737E-4</v>
@@ -9171,7 +9180,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="12" t="s">
         <v>37</v>
       </c>
@@ -9179,7 +9188,7 @@
         <v>13</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D118" s="13">
         <v>3.5125103911765737E-4</v>
@@ -9200,7 +9209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="12" t="s">
         <v>38</v>
       </c>
@@ -9208,7 +9217,7 @@
         <v>13</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D119" s="13">
         <v>3.5125103911765737E-4</v>
@@ -9229,7 +9238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="12" t="s">
         <v>39</v>
       </c>
@@ -9237,7 +9246,7 @@
         <v>13</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D120" s="13">
         <v>3.5125103911765737E-4</v>
@@ -9258,7 +9267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="14" t="s">
         <v>15</v>
       </c>
@@ -9266,7 +9275,7 @@
         <v>13</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D121" s="16">
         <v>3.5125103911765737E-4</v>
@@ -9287,7 +9296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="12" t="s">
         <v>133</v>
       </c>
@@ -9316,7 +9325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
         <v>134</v>
       </c>
@@ -9345,7 +9354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
         <v>135</v>
       </c>
@@ -9374,7 +9383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="12" t="s">
         <v>136</v>
       </c>
@@ -9403,7 +9412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="12" t="s">
         <v>137</v>
       </c>
@@ -9432,7 +9441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="12" t="s">
         <v>138</v>
       </c>
@@ -9461,7 +9470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="12" t="s">
         <v>139</v>
       </c>
@@ -9490,7 +9499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="12" t="s">
         <v>140</v>
       </c>
@@ -9519,7 +9528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12" t="s">
         <v>141</v>
       </c>
@@ -9548,7 +9557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12" t="s">
         <v>142</v>
       </c>
@@ -9577,7 +9586,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12" t="s">
         <v>143</v>
       </c>
@@ -9606,7 +9615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="14" t="s">
         <v>144</v>
       </c>
@@ -9635,7 +9644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
         <v>145</v>
       </c>
@@ -9664,7 +9673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="12" t="s">
         <v>146</v>
       </c>
@@ -9693,7 +9702,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>147</v>
       </c>
@@ -9722,7 +9731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
         <v>148</v>
       </c>
@@ -9751,7 +9760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="12" t="s">
         <v>149</v>
       </c>
@@ -9780,7 +9789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="12" t="s">
         <v>150</v>
       </c>
@@ -9809,7 +9818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
         <v>151</v>
       </c>
@@ -9838,7 +9847,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="12" t="s">
         <v>152</v>
       </c>
@@ -9867,7 +9876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="12" t="s">
         <v>153</v>
       </c>
@@ -9896,7 +9905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="12" t="s">
         <v>154</v>
       </c>
@@ -9925,7 +9934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
         <v>155</v>
       </c>
@@ -9954,7 +9963,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="12" t="s">
         <v>156</v>
       </c>
@@ -9983,7 +9992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="12" t="s">
         <v>157</v>
       </c>
@@ -10012,7 +10021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="12" t="s">
         <v>158</v>
       </c>
@@ -10041,7 +10050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="12" t="s">
         <v>159</v>
       </c>
@@ -10070,7 +10079,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="12" t="s">
         <v>160</v>
       </c>
@@ -10099,7 +10108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="12" t="s">
         <v>161</v>
       </c>
@@ -10128,7 +10137,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="12" t="s">
         <v>162</v>
       </c>
@@ -10157,7 +10166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="12" t="s">
         <v>163</v>
       </c>
@@ -10186,7 +10195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="12" t="s">
         <v>164</v>
       </c>
@@ -10215,7 +10224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="14" t="s">
         <v>165</v>
       </c>
@@ -10244,7 +10253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
         <v>28</v>
       </c>
@@ -10273,7 +10282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="14" t="s">
         <v>29</v>
       </c>
@@ -10302,7 +10311,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="23" t="s">
         <v>176</v>
       </c>
@@ -10330,7 +10339,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="21" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" s="21" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="23" t="s">
         <v>177</v>
       </c>
@@ -10358,7 +10367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="25" t="s">
         <v>30</v>
       </c>
@@ -10385,15 +10394,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="27" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B160" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C160" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D160" s="29">
         <v>0</v>
@@ -10414,15 +10423,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="27" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B161" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C161" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D161" s="29">
         <v>0</v>
@@ -10443,15 +10452,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="27" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B162" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D162" s="29">
         <v>0</v>
@@ -10472,15 +10481,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="27" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B163" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D163" s="29">
         <v>0</v>
@@ -10501,15 +10510,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B164" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C164" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D164" s="29">
         <v>0</v>
@@ -10530,15 +10539,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B165" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D165" s="29">
         <v>0</v>
@@ -10559,15 +10568,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="27" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B166" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C166" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D166" s="29">
         <v>0</v>
@@ -10588,15 +10597,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="30" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B167" s="31" t="s">
         <v>7</v>
       </c>
       <c r="C167" s="31" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D167" s="32">
         <v>0</v>
@@ -10617,7 +10626,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="33" t="s">
         <v>191</v>
       </c>
@@ -10646,7 +10655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="33" t="s">
         <v>192</v>
       </c>
@@ -10675,7 +10684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="33" t="s">
         <v>195</v>
       </c>
@@ -10704,7 +10713,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="33" t="s">
         <v>194</v>
       </c>
@@ -10733,7 +10742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="33" t="s">
         <v>196</v>
       </c>
@@ -10762,7 +10771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="33" t="s">
         <v>197</v>
       </c>
@@ -10791,7 +10800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="33" t="s">
         <v>206</v>
       </c>
@@ -10820,7 +10829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="33" t="s">
         <v>207</v>
       </c>
@@ -10849,7 +10858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="33" t="s">
         <v>212</v>
       </c>
@@ -10878,7 +10887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="33" t="s">
         <v>213</v>
       </c>
@@ -10907,7 +10916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="14" t="s">
         <v>214</v>
       </c>
@@ -10936,1038 +10945,1038 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="13"/>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="13"/>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="13"/>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="13"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="13"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="13"/>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="13"/>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="13"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="13"/>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="13"/>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="13"/>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="13"/>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="13"/>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="13"/>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="13"/>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="13"/>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="E201" s="5"/>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="E202" s="5"/>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="E203" s="5"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="E204" s="5"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="E205" s="5"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
       <c r="E206" s="5"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
       <c r="E207" s="5"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
       <c r="E208" s="5"/>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="E209" s="5"/>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="E210" s="5"/>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="E211" s="5"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="E212" s="5"/>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="E213" s="5"/>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="E214" s="5"/>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="E215" s="5"/>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="E216" s="5"/>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="E217" s="5"/>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="E218" s="5"/>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
       <c r="E219" s="5"/>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
       <c r="E220" s="5"/>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="E221" s="5"/>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="E222" s="5"/>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="E223" s="5"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="E224" s="5"/>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="E225" s="5"/>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="E226" s="5"/>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="E227" s="5"/>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
       <c r="E228" s="5"/>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="E229" s="5"/>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="E230" s="5"/>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="E231" s="5"/>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="E232" s="5"/>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="E233" s="5"/>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="E234" s="5"/>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="E235" s="5"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="E236" s="5"/>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="E237" s="5"/>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="E238" s="5"/>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="E239" s="5"/>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="E240" s="5"/>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="E241" s="5"/>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="E242" s="5"/>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="E243" s="5"/>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="E244" s="5"/>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="E245" s="5"/>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="E246" s="5"/>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="E247" s="5"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="E248" s="5"/>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
       <c r="E249" s="5"/>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
       <c r="E250" s="5"/>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
       <c r="D251" s="35"/>
       <c r="E251" s="5"/>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
       <c r="D252" s="35"/>
       <c r="E252" s="5"/>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="D253" s="35"/>
       <c r="E253" s="5"/>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
       <c r="D254" s="35"/>
       <c r="E254" s="5"/>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
       <c r="D255" s="35"/>
       <c r="E255" s="5"/>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
       <c r="D256" s="35"/>
       <c r="E256" s="5"/>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
       <c r="D257" s="35"/>
       <c r="E257" s="5"/>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
       <c r="D258" s="35"/>
       <c r="E258" s="5"/>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
       <c r="D259" s="35"/>
       <c r="E259" s="5"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
       <c r="D260" s="35"/>
       <c r="E260" s="5"/>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
       <c r="D261" s="35"/>
       <c r="E261" s="5"/>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
       <c r="D262" s="35"/>
       <c r="E262" s="5"/>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
       <c r="D263" s="35"/>
       <c r="E263" s="5"/>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
       <c r="D264" s="35"/>
       <c r="E264" s="5"/>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
       <c r="D265" s="35"/>
       <c r="E265" s="5"/>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
       <c r="D266" s="35"/>
       <c r="E266" s="5"/>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
       <c r="D267" s="35"/>
       <c r="E267" s="5"/>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
       <c r="D268" s="35"/>
       <c r="E268" s="5"/>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
       <c r="D269" s="35"/>
       <c r="E269" s="5"/>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
       <c r="D270" s="35"/>
       <c r="E270" s="5"/>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
       <c r="D271" s="35"/>
       <c r="E271" s="5"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
       <c r="E272" s="5"/>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
       <c r="E273" s="5"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
       <c r="E274" s="5"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
       <c r="E275" s="5"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
       <c r="E276" s="5"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
       <c r="E277" s="5"/>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
       <c r="E278" s="5"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
       <c r="E279" s="5"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
       <c r="E280" s="5"/>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
       <c r="E281" s="5"/>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
       <c r="E282" s="5"/>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
       <c r="E283" s="5"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
       <c r="E284" s="5"/>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
       <c r="E285" s="5"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
       <c r="E286" s="5"/>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
       <c r="E287" s="5"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
       <c r="E288" s="5"/>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
       <c r="E289" s="5"/>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
       <c r="E290" s="5"/>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
       <c r="E291" s="5"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
       <c r="E292" s="5"/>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
       <c r="E293" s="5"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
       <c r="E294" s="5"/>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
       <c r="E295" s="5"/>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
       <c r="E296" s="5"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
       <c r="E297" s="5"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
       <c r="E298" s="5"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
       <c r="E299" s="5"/>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
       <c r="E300" s="5"/>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
       <c r="E301" s="5"/>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
       <c r="E302" s="5"/>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
       <c r="E303" s="5"/>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
       <c r="E304" s="5"/>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
       <c r="E305" s="5"/>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
       <c r="E306" s="5"/>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
       <c r="E307" s="5"/>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
       <c r="E308" s="5"/>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
       <c r="E309" s="5"/>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
       <c r="E310" s="5"/>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
       <c r="E311" s="5"/>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
       <c r="E312" s="5"/>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
       <c r="E313" s="5"/>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
       <c r="E314" s="5"/>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
       <c r="E315" s="5"/>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
       <c r="E316" s="5"/>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
       <c r="E317" s="5"/>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
       <c r="E318" s="5"/>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
       <c r="E319" s="5"/>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
       <c r="E320" s="5"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
       <c r="E321" s="5"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
       <c r="E322" s="5"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
       <c r="E323" s="5"/>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
       <c r="E324" s="5"/>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
       <c r="E325" s="5"/>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
       <c r="E326" s="5"/>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
       <c r="E327" s="5"/>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
       <c r="E328" s="5"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
       <c r="E329" s="5"/>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
       <c r="E330" s="5"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
       <c r="E331" s="5"/>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
       <c r="D332" s="35"/>
       <c r="E332" s="5"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
       <c r="D333" s="35"/>
       <c r="E333" s="5"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
       <c r="D334" s="35"/>
       <c r="E334" s="5"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
       <c r="D335" s="35"/>
       <c r="E335" s="5"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
       <c r="D336" s="35"/>
       <c r="E336" s="5"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
       <c r="D337" s="35"/>
       <c r="E337" s="5"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
       <c r="D338" s="35"/>
       <c r="E338" s="5"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
       <c r="D339" s="35"/>
       <c r="E339" s="5"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
       <c r="D340" s="35"/>
       <c r="E340" s="5"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
       <c r="D341" s="35"/>
       <c r="E341" s="5"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
       <c r="D342" s="35"/>
       <c r="E342" s="5"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
@@ -11991,15 +12000,15 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="23.83203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="36" customWidth="1"/>
+    <col min="1" max="2" width="23.796875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.296875" style="36" customWidth="1"/>
     <col min="4" max="4" width="12" style="36" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="5"/>
+    <col min="5" max="16384" width="10.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>256</v>
       </c>
@@ -12013,9 +12022,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>40</v>
@@ -12027,7 +12036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -12041,7 +12050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -12055,7 +12064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -12069,7 +12078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>123</v>
       </c>
@@ -12083,7 +12092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>192</v>
       </c>
@@ -12097,7 +12106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>192</v>
       </c>
@@ -12111,7 +12120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>96</v>
       </c>
@@ -12125,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>97</v>
       </c>
@@ -12139,7 +12148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>97</v>
       </c>
@@ -12153,7 +12162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>138</v>
       </c>
@@ -12167,7 +12176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>138</v>
       </c>
@@ -12181,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>98</v>
       </c>
@@ -12195,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>98</v>
       </c>
@@ -12209,7 +12218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>177</v>
       </c>
@@ -12223,7 +12232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>96</v>
       </c>
@@ -12237,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>137</v>
       </c>
@@ -12251,7 +12260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>137</v>
       </c>
@@ -12265,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>95</v>
       </c>
@@ -12279,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>95</v>
       </c>
@@ -12293,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>191</v>
       </c>
@@ -12307,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>191</v>
       </c>
@@ -12321,7 +12330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>94</v>
       </c>
@@ -12335,7 +12344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>191</v>
       </c>
@@ -12349,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>129</v>
       </c>
@@ -12363,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="47" t="s">
         <v>208</v>
       </c>
@@ -12377,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>209</v>
       </c>
@@ -12391,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="51" t="s">
         <v>33</v>
       </c>
@@ -12405,12 +12414,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C30" s="40">
         <v>1</v>
@@ -12419,12 +12428,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B31" s="52" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C31" s="40">
         <v>1</v>
@@ -12433,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>94</v>
       </c>
@@ -12447,7 +12456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>136</v>
       </c>
@@ -12461,7 +12470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>136</v>
       </c>
@@ -12475,7 +12484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>93</v>
       </c>
@@ -12489,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>93</v>
       </c>
@@ -12503,7 +12512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="53" t="s">
         <v>176</v>
       </c>
@@ -12517,9 +12526,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>43</v>
@@ -12531,7 +12540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
@@ -12545,7 +12554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
@@ -12559,7 +12568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
@@ -12573,7 +12582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>125</v>
       </c>
@@ -12587,7 +12596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>194</v>
       </c>
@@ -12601,7 +12610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>194</v>
       </c>
@@ -12615,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>108</v>
       </c>
@@ -12629,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>109</v>
       </c>
@@ -12643,7 +12652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>109</v>
       </c>
@@ -12657,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>144</v>
       </c>
@@ -12671,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>144</v>
       </c>
@@ -12685,7 +12694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>110</v>
       </c>
@@ -12699,7 +12708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -12713,7 +12722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="56" t="s">
         <v>177</v>
       </c>
@@ -12727,7 +12736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>108</v>
       </c>
@@ -12741,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>143</v>
       </c>
@@ -12755,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>143</v>
       </c>
@@ -12769,7 +12778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>107</v>
       </c>
@@ -12783,7 +12792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>107</v>
       </c>
@@ -12797,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>195</v>
       </c>
@@ -12811,7 +12820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>195</v>
       </c>
@@ -12825,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>106</v>
       </c>
@@ -12839,7 +12848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>195</v>
       </c>
@@ -12853,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>131</v>
       </c>
@@ -12867,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="57" t="s">
         <v>35</v>
       </c>
@@ -12881,12 +12890,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="58" t="s">
         <v>131</v>
       </c>
       <c r="B64" s="47" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C64" s="49">
         <v>1</v>
@@ -12895,12 +12904,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="47" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B65" s="59" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C65" s="49">
         <v>1</v>
@@ -12909,7 +12918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>106</v>
       </c>
@@ -12923,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>142</v>
       </c>
@@ -12937,7 +12946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>142</v>
       </c>
@@ -12951,7 +12960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>105</v>
       </c>
@@ -12965,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="56" t="s">
         <v>176</v>
       </c>
@@ -12979,7 +12988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="60" t="s">
         <v>176</v>
       </c>
@@ -12993,7 +13002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="47" t="s">
         <v>85</v>
       </c>
@@ -13007,7 +13016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>85</v>
       </c>
@@ -13021,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>79</v>
       </c>
@@ -13035,7 +13044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>79</v>
       </c>
@@ -13049,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="21" t="s">
         <v>80</v>
       </c>
@@ -13063,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="21" t="s">
         <v>80</v>
       </c>
@@ -13077,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="21" t="s">
         <v>81</v>
       </c>
@@ -13091,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="21" t="s">
         <v>81</v>
       </c>
@@ -13105,7 +13114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="21" t="s">
         <v>163</v>
       </c>
@@ -13119,7 +13128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="21" t="s">
         <v>163</v>
       </c>
@@ -13133,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="21" t="s">
         <v>164</v>
       </c>
@@ -13147,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="21" t="s">
         <v>164</v>
       </c>
@@ -13161,7 +13170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>165</v>
       </c>
@@ -13175,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>165</v>
       </c>
@@ -13189,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>82</v>
       </c>
@@ -13203,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>82</v>
       </c>
@@ -13217,7 +13226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>179</v>
       </c>
@@ -13231,7 +13240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>179</v>
       </c>
@@ -13245,7 +13254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>180</v>
       </c>
@@ -13259,7 +13268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>180</v>
       </c>
@@ -13273,7 +13282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>86</v>
       </c>
@@ -13287,7 +13296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>86</v>
       </c>
@@ -13301,7 +13310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>127</v>
       </c>
@@ -13315,7 +13324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="51" t="s">
         <v>31</v>
       </c>
@@ -13329,12 +13338,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C96" s="40">
         <v>1</v>
@@ -13343,12 +13352,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="53" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B97" s="61" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C97" s="54">
         <v>1</v>
@@ -13357,7 +13366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="62" t="s">
         <v>176</v>
       </c>
@@ -13371,7 +13380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>87</v>
       </c>
@@ -13385,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>87</v>
       </c>
@@ -13399,7 +13408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>133</v>
       </c>
@@ -13413,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>133</v>
       </c>
@@ -13427,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>88</v>
       </c>
@@ -13441,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>88</v>
       </c>
@@ -13455,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>196</v>
       </c>
@@ -13469,7 +13478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>196</v>
       </c>
@@ -13483,7 +13492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>128</v>
       </c>
@@ -13497,12 +13506,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="51" t="s">
         <v>32</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C108" s="40">
         <v>1</v>
@@ -13511,12 +13520,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C109" s="40">
         <v>1</v>
@@ -13525,12 +13534,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="53" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B110" s="61" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C110" s="54">
         <v>1</v>
@@ -13539,7 +13548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>196</v>
       </c>
@@ -13553,7 +13562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>89</v>
       </c>
@@ -13567,7 +13576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>89</v>
       </c>
@@ -13581,7 +13590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>134</v>
       </c>
@@ -13595,7 +13604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>134</v>
       </c>
@@ -13609,7 +13618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>90</v>
       </c>
@@ -13623,7 +13632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>90</v>
       </c>
@@ -13637,7 +13646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>197</v>
       </c>
@@ -13651,7 +13660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>197</v>
       </c>
@@ -13665,7 +13674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>91</v>
       </c>
@@ -13679,7 +13688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>91</v>
       </c>
@@ -13693,7 +13702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
         <v>135</v>
       </c>
@@ -13707,7 +13716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5" t="s">
         <v>135</v>
       </c>
@@ -13721,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>92</v>
       </c>
@@ -13735,7 +13744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>92</v>
       </c>
@@ -13749,7 +13758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="56" t="s">
         <v>177</v>
       </c>
@@ -13763,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5" t="s">
         <v>197</v>
       </c>
@@ -13777,7 +13786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5" t="s">
         <v>83</v>
       </c>
@@ -13791,7 +13800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="51" t="s">
         <v>39</v>
       </c>
@@ -13805,7 +13814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="47" t="s">
         <v>83</v>
       </c>
@@ -13819,12 +13828,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="144" t="s">
         <v>29</v>
       </c>
       <c r="B131" s="61" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C131" s="54">
         <v>1</v>
@@ -13833,7 +13842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="48" t="s">
         <v>176</v>
       </c>
@@ -13847,7 +13856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5" t="s">
         <v>84</v>
       </c>
@@ -13861,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>160</v>
       </c>
@@ -13875,7 +13884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>161</v>
       </c>
@@ -13889,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>162</v>
       </c>
@@ -13903,7 +13912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="21" t="s">
         <v>74</v>
       </c>
@@ -13917,7 +13926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="21" t="s">
         <v>75</v>
       </c>
@@ -13931,7 +13940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="21" t="s">
         <v>76</v>
       </c>
@@ -13945,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="21" t="s">
         <v>77</v>
       </c>
@@ -13959,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="21" t="s">
         <v>78</v>
       </c>
@@ -13973,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="141" t="s">
         <v>38</v>
       </c>
@@ -13987,12 +13996,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="144" t="s">
         <v>28</v>
       </c>
       <c r="B143" s="61" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C143" s="54">
         <v>1</v>
@@ -14001,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="48" t="s">
         <v>176</v>
       </c>
@@ -14015,7 +14024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>99</v>
       </c>
@@ -14029,7 +14038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5" t="s">
         <v>99</v>
       </c>
@@ -14043,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5" t="s">
         <v>139</v>
       </c>
@@ -14057,7 +14066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5" t="s">
         <v>139</v>
       </c>
@@ -14071,7 +14080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>100</v>
       </c>
@@ -14085,7 +14094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>100</v>
       </c>
@@ -14099,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
         <v>206</v>
       </c>
@@ -14113,7 +14122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5" t="s">
         <v>206</v>
       </c>
@@ -14127,7 +14136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>101</v>
       </c>
@@ -14141,7 +14150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>101</v>
       </c>
@@ -14155,7 +14164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>140</v>
       </c>
@@ -14169,7 +14178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>140</v>
       </c>
@@ -14183,7 +14192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>102</v>
       </c>
@@ -14197,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>102</v>
       </c>
@@ -14211,7 +14220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5" t="s">
         <v>207</v>
       </c>
@@ -14225,7 +14234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
         <v>207</v>
       </c>
@@ -14239,7 +14248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>103</v>
       </c>
@@ -14253,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>103</v>
       </c>
@@ -14267,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>141</v>
       </c>
@@ -14281,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>141</v>
       </c>
@@ -14295,7 +14304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>104</v>
       </c>
@@ -14309,7 +14318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>104</v>
       </c>
@@ -14323,7 +14332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="65" t="s">
         <v>177</v>
       </c>
@@ -14337,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
         <v>206</v>
       </c>
@@ -14351,7 +14360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5" t="s">
         <v>130</v>
       </c>
@@ -14365,12 +14374,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C170" s="40">
         <v>1</v>
@@ -14379,12 +14388,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="63" t="s">
         <v>34</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C171" s="40">
         <v>1</v>
@@ -14393,12 +14402,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="21" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B172" s="59" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C172" s="49">
         <v>1</v>
@@ -14407,7 +14416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5" t="s">
         <v>207</v>
       </c>
@@ -14421,12 +14430,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="53" t="s">
         <v>124</v>
       </c>
       <c r="B174" s="61" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C174" s="54">
         <v>1</v>
@@ -14435,7 +14444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="66" t="s">
         <v>176</v>
       </c>
@@ -14449,7 +14458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5" t="s">
         <v>111</v>
       </c>
@@ -14463,7 +14472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5" t="s">
         <v>111</v>
       </c>
@@ -14477,7 +14486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="21" t="s">
         <v>47</v>
       </c>
@@ -14491,7 +14500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="21" t="s">
         <v>48</v>
       </c>
@@ -14505,7 +14514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="21" t="s">
         <v>48</v>
       </c>
@@ -14519,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="21" t="s">
         <v>49</v>
       </c>
@@ -14533,7 +14542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="21" t="s">
         <v>49</v>
       </c>
@@ -14547,7 +14556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="21" t="s">
         <v>50</v>
       </c>
@@ -14561,7 +14570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="21" t="s">
         <v>50</v>
       </c>
@@ -14575,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="21" t="s">
         <v>51</v>
       </c>
@@ -14589,7 +14598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="21" t="s">
         <v>51</v>
       </c>
@@ -14603,7 +14612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5" t="s">
         <v>145</v>
       </c>
@@ -14617,7 +14626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5" t="s">
         <v>145</v>
       </c>
@@ -14631,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5" t="s">
         <v>146</v>
       </c>
@@ -14645,7 +14654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5" t="s">
         <v>146</v>
       </c>
@@ -14659,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5" t="s">
         <v>147</v>
       </c>
@@ -14673,7 +14682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5" t="s">
         <v>147</v>
       </c>
@@ -14687,7 +14696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5" t="s">
         <v>112</v>
       </c>
@@ -14701,9 +14710,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="67" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B194" s="68" t="s">
         <v>210</v>
@@ -14715,7 +14724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="51" t="s">
         <v>36</v>
       </c>
@@ -14729,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>210</v>
       </c>
@@ -14743,7 +14752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5" t="s">
         <v>132</v>
       </c>
@@ -14757,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5" t="s">
         <v>212</v>
       </c>
@@ -14771,7 +14780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5" t="s">
         <v>212</v>
       </c>
@@ -14785,7 +14794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="44" t="s">
         <v>112</v>
       </c>
@@ -14799,7 +14808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
         <v>113</v>
       </c>
@@ -14813,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5" t="s">
         <v>113</v>
       </c>
@@ -14827,7 +14836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="21" t="s">
         <v>52</v>
       </c>
@@ -14841,7 +14850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="21" t="s">
         <v>52</v>
       </c>
@@ -14855,7 +14864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="21" t="s">
         <v>53</v>
       </c>
@@ -14869,7 +14878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="21" t="s">
         <v>53</v>
       </c>
@@ -14883,7 +14892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="21" t="s">
         <v>54</v>
       </c>
@@ -14897,7 +14906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="21" t="s">
         <v>54</v>
       </c>
@@ -14911,7 +14920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>148</v>
       </c>
@@ -14925,7 +14934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>148</v>
       </c>
@@ -14939,7 +14948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>149</v>
       </c>
@@ -14953,7 +14962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>149</v>
       </c>
@@ -14967,7 +14976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
         <v>150</v>
       </c>
@@ -14981,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5" t="s">
         <v>150</v>
       </c>
@@ -14995,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5" t="s">
         <v>55</v>
       </c>
@@ -15009,7 +15018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5" t="s">
         <v>55</v>
       </c>
@@ -15023,7 +15032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>56</v>
       </c>
@@ -15037,7 +15046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="69" t="s">
         <v>56</v>
       </c>
@@ -15051,7 +15060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="70" t="s">
         <v>57</v>
       </c>
@@ -15065,7 +15074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="70" t="s">
         <v>57</v>
       </c>
@@ -15079,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>114</v>
       </c>
@@ -15093,7 +15102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>114</v>
       </c>
@@ -15107,7 +15116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>115</v>
       </c>
@@ -15121,7 +15130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>115</v>
       </c>
@@ -15135,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>116</v>
       </c>
@@ -15149,7 +15158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>116</v>
       </c>
@@ -15163,7 +15172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="56" t="s">
         <v>177</v>
       </c>
@@ -15177,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="48" t="s">
         <v>176</v>
       </c>
@@ -15191,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5" t="s">
         <v>117</v>
       </c>
@@ -15205,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5" t="s">
         <v>117</v>
       </c>
@@ -15219,7 +15228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="21" t="s">
         <v>58</v>
       </c>
@@ -15233,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="21" t="s">
         <v>58</v>
       </c>
@@ -15247,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="21" t="s">
         <v>59</v>
       </c>
@@ -15261,7 +15270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="21" t="s">
         <v>59</v>
       </c>
@@ -15275,7 +15284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="21" t="s">
         <v>60</v>
       </c>
@@ -15289,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="21" t="s">
         <v>60</v>
       </c>
@@ -15303,7 +15312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="21" t="s">
         <v>61</v>
       </c>
@@ -15317,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="21" t="s">
         <v>61</v>
       </c>
@@ -15331,7 +15340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="21" t="s">
         <v>62</v>
       </c>
@@ -15345,7 +15354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="21" t="s">
         <v>62</v>
       </c>
@@ -15359,7 +15368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>151</v>
       </c>
@@ -15373,7 +15382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>151</v>
       </c>
@@ -15387,7 +15396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>152</v>
       </c>
@@ -15401,7 +15410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>152</v>
       </c>
@@ -15415,7 +15424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>153</v>
       </c>
@@ -15429,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>153</v>
       </c>
@@ -15443,7 +15452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>118</v>
       </c>
@@ -15457,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>118</v>
       </c>
@@ -15471,9 +15480,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="67" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B249" s="68" t="s">
         <v>211</v>
@@ -15485,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="63" t="s">
         <v>37</v>
       </c>
@@ -15499,7 +15508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>211</v>
       </c>
@@ -15513,7 +15522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5" t="s">
         <v>178</v>
       </c>
@@ -15527,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5" t="s">
         <v>213</v>
       </c>
@@ -15541,7 +15550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="53" t="s">
         <v>213</v>
       </c>
@@ -15555,7 +15564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5" t="s">
         <v>119</v>
       </c>
@@ -15569,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5" t="s">
         <v>119</v>
       </c>
@@ -15583,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="21" t="s">
         <v>63</v>
       </c>
@@ -15597,7 +15606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="21" t="s">
         <v>63</v>
       </c>
@@ -15611,7 +15620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="21" t="s">
         <v>64</v>
       </c>
@@ -15625,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="21" t="s">
         <v>64</v>
       </c>
@@ -15639,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="21" t="s">
         <v>65</v>
       </c>
@@ -15653,7 +15662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="21" t="s">
         <v>65</v>
       </c>
@@ -15667,7 +15676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>154</v>
       </c>
@@ -15681,7 +15690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>154</v>
       </c>
@@ -15695,7 +15704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>155</v>
       </c>
@@ -15709,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>155</v>
       </c>
@@ -15723,7 +15732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>156</v>
       </c>
@@ -15737,7 +15746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>156</v>
       </c>
@@ -15751,7 +15760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="21" t="s">
         <v>66</v>
       </c>
@@ -15765,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="21" t="s">
         <v>66</v>
       </c>
@@ -15779,7 +15788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="21" t="s">
         <v>67</v>
       </c>
@@ -15793,7 +15802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="21" t="s">
         <v>67</v>
       </c>
@@ -15807,7 +15816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="21" t="s">
         <v>68</v>
       </c>
@@ -15821,7 +15830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="21" t="s">
         <v>68</v>
       </c>
@@ -15835,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5" t="s">
         <v>120</v>
       </c>
@@ -15849,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5" t="s">
         <v>120</v>
       </c>
@@ -15863,7 +15872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>214</v>
       </c>
@@ -15877,7 +15886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>214</v>
       </c>
@@ -15891,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>121</v>
       </c>
@@ -15905,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>121</v>
       </c>
@@ -15919,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>157</v>
       </c>
@@ -15933,7 +15942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>157</v>
       </c>
@@ -15947,7 +15956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>158</v>
       </c>
@@ -15961,7 +15970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>158</v>
       </c>
@@ -15975,7 +15984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>159</v>
       </c>
@@ -15989,7 +15998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>159</v>
       </c>
@@ -16003,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="21" t="s">
         <v>69</v>
       </c>
@@ -16017,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="21" t="s">
         <v>69</v>
       </c>
@@ -16031,7 +16040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="21" t="s">
         <v>70</v>
       </c>
@@ -16045,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="21" t="s">
         <v>70</v>
       </c>
@@ -16059,7 +16068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="21" t="s">
         <v>71</v>
       </c>
@@ -16073,7 +16082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="21" t="s">
         <v>71</v>
       </c>
@@ -16087,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="21" t="s">
         <v>72</v>
       </c>
@@ -16101,7 +16110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="21" t="s">
         <v>72</v>
       </c>
@@ -16115,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="21" t="s">
         <v>73</v>
       </c>
@@ -16129,7 +16138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="21" t="s">
         <v>73</v>
       </c>
@@ -16143,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>122</v>
       </c>
@@ -16157,7 +16166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>122</v>
       </c>
@@ -16171,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="56" t="s">
         <v>177</v>
       </c>
@@ -16185,9 +16194,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="39" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>46</v>
@@ -16199,7 +16208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="51" t="s">
         <v>15</v>
       </c>
@@ -16213,7 +16222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>46</v>
       </c>
@@ -16227,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>126</v>
       </c>
@@ -16241,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="53" t="s">
         <v>126</v>
       </c>
@@ -16255,12 +16264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C305" s="40">
         <v>1</v>
@@ -16269,12 +16278,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C306" s="40">
         <v>1</v>
@@ -16283,12 +16292,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C307" s="40">
         <v>1</v>
@@ -16297,12 +16306,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C308" s="40">
         <v>1</v>
@@ -16311,12 +16320,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C309" s="40">
         <v>1</v>
@@ -16325,12 +16334,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C310" s="40">
         <v>1</v>
@@ -16339,12 +16348,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C311" s="40">
         <v>1</v>
@@ -16353,12 +16362,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C312" s="40">
         <v>1</v>
@@ -16367,12 +16376,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C313" s="40">
         <v>1</v>
@@ -16381,12 +16390,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C314" s="40">
         <v>1</v>
@@ -16395,12 +16404,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C315" s="40">
         <v>1</v>
@@ -16409,12 +16418,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C316" s="40">
         <v>1</v>
@@ -16423,12 +16432,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="53" t="s">
         <v>30</v>
       </c>
       <c r="B317" s="53" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C317" s="54">
         <v>1</v>
@@ -16437,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C318" s="40"/>
     </row>
   </sheetData>
@@ -16458,16 +16467,16 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.796875" style="5" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="5"/>
+    <col min="4" max="4" width="18.19921875" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>260</v>
       </c>
@@ -16481,9 +16490,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B2" s="140">
         <v>300</v>
@@ -16496,9 +16505,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B3" s="140">
         <v>300</v>
@@ -16511,9 +16520,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B4" s="73">
         <v>0</v>
@@ -16526,9 +16535,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B5" s="139">
         <v>330</v>
@@ -16542,9 +16551,9 @@
       </c>
       <c r="E5" s="73"/>
     </row>
-    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B6" s="140">
         <v>852</v>
@@ -16557,28 +16566,28 @@
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="73"/>
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8" s="73"/>
       <c r="D8" s="73"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C11" s="73"/>
       <c r="D11" s="73"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="73"/>
     </row>
   </sheetData>
@@ -16599,17 +16608,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="5" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.296875" style="5" customWidth="1"/>
     <col min="4" max="4" width="21" style="5" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="5"/>
+    <col min="5" max="5" width="11.296875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="10.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="71" t="s">
         <v>264</v>
       </c>
@@ -16626,9 +16635,9 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>29</v>
@@ -16645,9 +16654,9 @@
       </c>
       <c r="F2" s="73"/>
     </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>28</v>
@@ -16663,9 +16672,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>125</v>
@@ -16681,12 +16690,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C5" s="140">
         <v>64</v>
@@ -16699,12 +16708,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C6" s="140">
         <v>375</v>
@@ -16717,12 +16726,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C7" s="140">
         <v>402</v>
@@ -16735,12 +16744,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C8" s="140">
         <v>424</v>
@@ -16753,12 +16762,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C9" s="140">
         <v>447</v>
@@ -16771,7 +16780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
       <c r="E10" s="74"/>
@@ -16791,36 +16800,36 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="77"/>
+    <col min="1" max="1" width="10.796875" style="77"/>
     <col min="2" max="2" width="42" style="75" customWidth="1"/>
     <col min="3" max="4" width="16" style="75" customWidth="1"/>
     <col min="5" max="5" width="17" style="75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" style="77" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="77" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="77" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" style="77" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="77" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="77" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="77" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" style="77" customWidth="1"/>
-    <col min="15" max="16" width="18.83203125" style="77" customWidth="1"/>
-    <col min="17" max="17" width="21.83203125" style="77" customWidth="1"/>
-    <col min="18" max="18" width="71.6640625" style="78" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="79"/>
+    <col min="6" max="6" width="16.296875" style="77" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.296875" style="77" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" style="77" customWidth="1"/>
+    <col min="10" max="10" width="13.19921875" style="77" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.296875" style="77" customWidth="1"/>
+    <col min="12" max="12" width="13.296875" style="77" customWidth="1"/>
+    <col min="13" max="13" width="13.69921875" style="77" customWidth="1"/>
+    <col min="14" max="14" width="19.69921875" style="77" customWidth="1"/>
+    <col min="15" max="16" width="18.796875" style="77" customWidth="1"/>
+    <col min="17" max="17" width="21.796875" style="77" customWidth="1"/>
+    <col min="18" max="18" width="71.69921875" style="78" customWidth="1"/>
+    <col min="19" max="16384" width="10.796875" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="162" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B1" s="112" t="s">
         <v>0</v>
@@ -16829,19 +16838,19 @@
         <v>4</v>
       </c>
       <c r="D1" s="112" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E1" s="106" t="s">
         <v>244</v>
       </c>
       <c r="F1" s="108" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="G1" s="108" t="s">
-        <v>285</v>
+        <v>369</v>
       </c>
       <c r="H1" s="108" t="s">
-        <v>275</v>
+        <v>367</v>
       </c>
       <c r="I1" s="110" t="s">
         <v>5</v>
@@ -16853,19 +16862,19 @@
         <v>20</v>
       </c>
       <c r="L1" s="109" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M1" s="109" t="s">
+        <v>279</v>
+      </c>
+      <c r="N1" s="113" t="s">
         <v>281</v>
       </c>
-      <c r="N1" s="113" t="s">
-        <v>283</v>
-      </c>
       <c r="O1" s="113" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="P1" s="113" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="Q1" s="160" t="s">
         <v>254</v>
@@ -16874,7 +16883,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="75" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="75" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="77">
         <v>1</v>
       </c>
@@ -16885,7 +16894,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E2" s="80" t="s">
         <v>23</v>
@@ -16909,13 +16918,13 @@
         <v>22</v>
       </c>
       <c r="L2" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M2" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N2" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M2" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N2" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O2" s="158">
         <v>21</v>
@@ -16930,7 +16939,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="75" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="75" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="77">
         <v>2</v>
       </c>
@@ -16941,7 +16950,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E3" s="80" t="s">
         <v>23</v>
@@ -16965,13 +16974,13 @@
         <v>22</v>
       </c>
       <c r="L3" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M3" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N3" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M3" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N3" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O3" s="158">
         <v>21</v>
@@ -16986,7 +16995,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="75" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="75" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="77">
         <v>3</v>
       </c>
@@ -16997,7 +17006,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E4" s="80" t="s">
         <v>23</v>
@@ -17021,13 +17030,13 @@
         <v>22</v>
       </c>
       <c r="L4" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M4" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N4" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M4" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N4" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O4" s="158">
         <v>21</v>
@@ -17042,7 +17051,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="75" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="75" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="77">
         <v>4</v>
       </c>
@@ -17053,7 +17062,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E5" s="80" t="s">
         <v>23</v>
@@ -17077,13 +17086,13 @@
         <v>22</v>
       </c>
       <c r="L5" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M5" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N5" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M5" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N5" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O5" s="158">
         <v>7</v>
@@ -17095,10 +17104,10 @@
         <v>22</v>
       </c>
       <c r="R5" s="146" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="75" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="75" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="77">
         <v>5</v>
       </c>
@@ -17109,7 +17118,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E6" s="80" t="s">
         <v>23</v>
@@ -17133,13 +17142,13 @@
         <v>22</v>
       </c>
       <c r="L6" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M6" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N6" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M6" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N6" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O6" s="158">
         <v>7</v>
@@ -17151,10 +17160,10 @@
         <v>22</v>
       </c>
       <c r="R6" s="146" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="75" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="75" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="77">
         <v>6</v>
       </c>
@@ -17165,7 +17174,7 @@
         <v>21</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E7" s="80" t="s">
         <v>23</v>
@@ -17189,13 +17198,13 @@
         <v>22</v>
       </c>
       <c r="L7" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N7" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M7" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N7" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O7" s="158">
         <v>5</v>
@@ -17210,7 +17219,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="75" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="75" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="77">
         <v>7</v>
       </c>
@@ -17221,7 +17230,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>23</v>
@@ -17245,13 +17254,13 @@
         <v>22</v>
       </c>
       <c r="L8" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M8" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N8" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M8" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N8" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O8" s="158">
         <v>21</v>
@@ -17263,10 +17272,10 @@
         <v>22</v>
       </c>
       <c r="R8" s="146" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="75" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="75" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="77">
         <v>8</v>
       </c>
@@ -17277,7 +17286,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E9" s="80" t="s">
         <v>23</v>
@@ -17301,13 +17310,13 @@
         <v>22</v>
       </c>
       <c r="L9" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M9" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N9" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M9" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N9" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O9" s="158">
         <v>21</v>
@@ -17319,10 +17328,10 @@
         <v>22</v>
       </c>
       <c r="R9" s="146" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" s="75" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="75" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="77">
         <v>9</v>
       </c>
@@ -17333,7 +17342,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E10" s="80" t="s">
         <v>23</v>
@@ -17357,13 +17366,13 @@
         <v>22</v>
       </c>
       <c r="L10" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M10" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N10" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M10" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N10" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O10" s="158">
         <v>14</v>
@@ -17375,10 +17384,10 @@
         <v>22</v>
       </c>
       <c r="R10" s="146" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="75" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="75" customFormat="1" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="77">
         <v>10</v>
       </c>
@@ -17389,7 +17398,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E11" s="80" t="s">
         <v>23</v>
@@ -17413,13 +17422,13 @@
         <v>22</v>
       </c>
       <c r="L11" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M11" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N11" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M11" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N11" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O11" s="158">
         <v>21</v>
@@ -17431,10 +17440,10 @@
         <v>22</v>
       </c>
       <c r="R11" s="146" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" s="75" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="75" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="77">
         <v>11</v>
       </c>
@@ -17445,7 +17454,7 @@
         <v>21</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E12" s="80" t="s">
         <v>23</v>
@@ -17469,13 +17478,13 @@
         <v>22</v>
       </c>
       <c r="L12" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M12" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N12" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M12" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N12" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O12" s="158">
         <v>21</v>
@@ -17487,10 +17496,10 @@
         <v>22</v>
       </c>
       <c r="R12" s="146" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" s="75" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="75" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="77">
         <v>12</v>
       </c>
@@ -17501,7 +17510,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E13" s="80" t="s">
         <v>23</v>
@@ -17525,13 +17534,13 @@
         <v>22</v>
       </c>
       <c r="L13" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M13" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N13" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M13" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N13" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O13" s="158">
         <v>21</v>
@@ -17543,10 +17552,10 @@
         <v>22</v>
       </c>
       <c r="R13" s="146" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="77">
         <v>13</v>
       </c>
@@ -17557,7 +17566,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E14" s="80" t="s">
         <v>23</v>
@@ -17581,13 +17590,13 @@
         <v>22</v>
       </c>
       <c r="L14" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M14" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N14" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M14" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N14" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O14" s="158">
         <v>10</v>
@@ -17599,10 +17608,10 @@
         <v>22</v>
       </c>
       <c r="R14" s="146" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="77">
         <v>14</v>
       </c>
@@ -17613,7 +17622,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E15" s="80" t="s">
         <v>23</v>
@@ -17637,13 +17646,13 @@
         <v>22</v>
       </c>
       <c r="L15" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M15" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N15" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M15" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N15" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O15" s="158">
         <v>75</v>
@@ -17658,7 +17667,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="77">
         <v>15</v>
       </c>
@@ -17669,7 +17678,7 @@
         <v>21</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E16" s="80" t="s">
         <v>23</v>
@@ -17693,13 +17702,13 @@
         <v>22</v>
       </c>
       <c r="L16" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M16" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N16" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M16" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N16" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O16" s="158">
         <v>75</v>
@@ -17714,7 +17723,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="77">
         <v>16</v>
       </c>
@@ -17725,7 +17734,7 @@
         <v>21</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E17" s="80" t="s">
         <v>23</v>
@@ -17749,13 +17758,13 @@
         <v>22</v>
       </c>
       <c r="L17" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M17" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N17" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M17" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N17" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O17" s="158">
         <v>75</v>
@@ -17770,7 +17779,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="75" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="75" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="77">
         <v>17</v>
       </c>
@@ -17781,7 +17790,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E18" s="80" t="s">
         <v>23</v>
@@ -17805,13 +17814,13 @@
         <v>22</v>
       </c>
       <c r="L18" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M18" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N18" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M18" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N18" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O18" s="158">
         <v>1</v>
@@ -17826,7 +17835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="75" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="75" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="77">
         <v>18</v>
       </c>
@@ -17837,7 +17846,7 @@
         <v>21</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E19" s="80" t="s">
         <v>23</v>
@@ -17861,13 +17870,13 @@
         <v>22</v>
       </c>
       <c r="L19" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M19" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N19" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M19" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N19" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O19" s="158">
         <v>1</v>
@@ -17882,7 +17891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="75" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="75" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="77">
         <v>19</v>
       </c>
@@ -17893,7 +17902,7 @@
         <v>21</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E20" s="152" t="s">
         <v>23</v>
@@ -17917,13 +17926,13 @@
         <v>22</v>
       </c>
       <c r="L20" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M20" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N20" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M20" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N20" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O20" s="159">
         <v>7</v>
@@ -17938,7 +17947,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="75" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" s="75" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="77">
         <v>20</v>
       </c>
@@ -17949,7 +17958,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E21" s="80" t="s">
         <v>23</v>
@@ -17973,13 +17982,13 @@
         <v>22</v>
       </c>
       <c r="L21" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M21" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N21" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M21" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N21" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O21" s="158">
         <v>7</v>
@@ -17994,7 +18003,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="75" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" s="75" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="77">
         <v>21</v>
       </c>
@@ -18005,7 +18014,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E22" s="80" t="s">
         <v>23</v>
@@ -18029,13 +18038,13 @@
         <v>22</v>
       </c>
       <c r="L22" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M22" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N22" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M22" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N22" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O22" s="158">
         <v>1</v>
@@ -18050,7 +18059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="75" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" s="75" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="77">
         <v>22</v>
       </c>
@@ -18061,7 +18070,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="80" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E23" s="80" t="s">
         <v>23</v>
@@ -18085,13 +18094,13 @@
         <v>22</v>
       </c>
       <c r="L23" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="M23" s="89" t="s">
+        <v>280</v>
+      </c>
+      <c r="N23" s="89" t="s">
         <v>282</v>
-      </c>
-      <c r="M23" s="89" t="s">
-        <v>282</v>
-      </c>
-      <c r="N23" s="89" t="s">
-        <v>284</v>
       </c>
       <c r="O23" s="158">
         <v>1</v>
@@ -18138,7 +18147,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P23">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18159,16 +18168,16 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42" style="75" customWidth="1"/>
     <col min="2" max="2" width="16" style="75" customWidth="1"/>
-    <col min="3" max="3" width="53.83203125" style="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" style="78" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="79"/>
+    <col min="3" max="3" width="53.796875" style="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.69921875" style="78" customWidth="1"/>
+    <col min="5" max="16384" width="10.796875" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
@@ -18182,7 +18191,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="75" customFormat="1" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="75" customFormat="1" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
         <v>168</v>
       </c>
@@ -18196,7 +18205,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="75" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="75" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
         <v>169</v>
       </c>
@@ -18210,7 +18219,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="75" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="75" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="80" t="s">
         <v>16</v>
       </c>
@@ -18224,7 +18233,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="75" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="75" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
         <v>18</v>
       </c>
@@ -18235,10 +18244,10 @@
         <v>183</v>
       </c>
       <c r="D5" s="84" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="75" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="75" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="80" t="s">
         <v>19</v>
       </c>
@@ -18249,10 +18258,10 @@
         <v>183</v>
       </c>
       <c r="D6" s="84" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="75" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="75" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="80" t="s">
         <v>13</v>
       </c>
@@ -18266,7 +18275,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="75" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="75" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="80" t="s">
         <v>24</v>
       </c>
@@ -18277,10 +18286,10 @@
         <v>186</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="75" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="75" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="80" t="s">
         <v>170</v>
       </c>
@@ -18291,10 +18300,10 @@
         <v>186</v>
       </c>
       <c r="D9" s="84" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="75" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="75" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="80" t="s">
         <v>171</v>
       </c>
@@ -18305,10 +18314,10 @@
         <v>186</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="75" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="75" customFormat="1" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="80" t="s">
         <v>172</v>
       </c>
@@ -18319,10 +18328,10 @@
         <v>181</v>
       </c>
       <c r="D11" s="84" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="75" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="75" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="80" t="s">
         <v>173</v>
       </c>
@@ -18333,10 +18342,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="75" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="75" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="80" t="s">
         <v>174</v>
       </c>
@@ -18347,10 +18356,10 @@
         <v>181</v>
       </c>
       <c r="D13" s="84" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="75" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="80" t="s">
         <v>175</v>
       </c>
@@ -18361,10 +18370,10 @@
         <v>181</v>
       </c>
       <c r="D14" s="84" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="126" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="126" customFormat="1" ht="159" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="84" t="s">
         <v>17</v>
       </c>
@@ -18378,7 +18387,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="75" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="75" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="85" t="s">
         <v>14</v>
       </c>
@@ -18392,7 +18401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="75" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="75" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="80" t="s">
         <v>253</v>
       </c>
@@ -18406,7 +18415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="75" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="75" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="86" t="s">
         <v>242</v>
       </c>
@@ -18420,7 +18429,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="75" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="75" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="87" t="s">
         <v>7</v>
       </c>
@@ -18434,7 +18443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="75" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" s="75" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="88" t="s">
         <v>193</v>
       </c>
@@ -18450,52 +18459,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D6:XFD8 D10:XFD10 E9:XFD9 A19:B19 A2:B17 C2:XFD5 C11:XFD16 D17:XFD19 C17:C20">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="9" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="7" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18515,20 +18524,20 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="101" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="101" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="101" customWidth="1"/>
-    <col min="7" max="7" width="29.1640625" style="101" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" style="101" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="34"/>
+    <col min="1" max="1" width="47.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" style="101" customWidth="1"/>
+    <col min="3" max="3" width="21.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.796875" style="101" customWidth="1"/>
+    <col min="6" max="6" width="24.296875" style="101" customWidth="1"/>
+    <col min="7" max="7" width="29.19921875" style="101" customWidth="1"/>
+    <col min="8" max="8" width="31.19921875" style="101" customWidth="1"/>
+    <col min="9" max="16384" width="10.796875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="s">
         <v>9</v>
       </c>
@@ -18541,7 +18550,7 @@
       <c r="G1" s="91"/>
       <c r="H1" s="91"/>
     </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="90" t="s">
         <v>11</v>
       </c>
@@ -18553,7 +18562,7 @@
       <c r="G2" s="91"/>
       <c r="H2" s="91"/>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="92"/>
       <c r="B3" s="93"/>
       <c r="C3" s="92"/>
@@ -18563,7 +18572,7 @@
       <c r="G3" s="93"/>
       <c r="H3" s="93"/>
     </row>
-    <row r="4" spans="1:8" s="94" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="94" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="115" t="s">
         <v>0</v>
       </c>
@@ -18589,7 +18598,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="95" t="s">
         <v>168</v>
       </c>
@@ -18614,7 +18623,7 @@
       <c r="G5" s="102"/>
       <c r="H5" s="102"/>
     </row>
-    <row r="6" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="95" t="s">
         <v>16</v>
       </c>
@@ -18639,7 +18648,7 @@
       <c r="G6" s="102"/>
       <c r="H6" s="102"/>
     </row>
-    <row r="7" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="95" t="s">
         <v>18</v>
       </c>
@@ -18664,7 +18673,7 @@
       <c r="G7" s="102"/>
       <c r="H7" s="102"/>
     </row>
-    <row r="8" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="s">
         <v>13</v>
       </c>
@@ -18689,7 +18698,7 @@
       <c r="G8" s="102"/>
       <c r="H8" s="102"/>
     </row>
-    <row r="9" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="95" t="s">
         <v>24</v>
       </c>
@@ -18714,7 +18723,7 @@
       <c r="G9" s="102"/>
       <c r="H9" s="102"/>
     </row>
-    <row r="10" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="95" t="s">
         <v>171</v>
       </c>
@@ -18739,7 +18748,7 @@
       <c r="G10" s="102"/>
       <c r="H10" s="102"/>
     </row>
-    <row r="11" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="95" t="s">
         <v>172</v>
       </c>
@@ -18764,7 +18773,7 @@
       <c r="G11" s="102"/>
       <c r="H11" s="102"/>
     </row>
-    <row r="12" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
         <v>173</v>
       </c>
@@ -18789,7 +18798,7 @@
       <c r="G12" s="102"/>
       <c r="H12" s="102"/>
     </row>
-    <row r="13" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="99" t="s">
         <v>17</v>
       </c>
@@ -18814,7 +18823,7 @@
       <c r="G13" s="103"/>
       <c r="H13" s="103"/>
     </row>
-    <row r="14" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="100" t="s">
         <v>166</v>
       </c>
@@ -18839,7 +18848,7 @@
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
     </row>
-    <row r="15" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="99" t="s">
         <v>224</v>
       </c>
@@ -18851,7 +18860,7 @@
       <c r="G15" s="104"/>
       <c r="H15" s="104"/>
     </row>
-    <row r="16" spans="1:8" s="121" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="121" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="118" t="s">
         <v>225</v>
       </c>
@@ -18874,62 +18883,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F5:F9 A5:A13 B5:C16 D5:E15 G5:H13 F11:F15">
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="17" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="16" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G16">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H16">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"NA"</formula>
     </cfRule>
   </conditionalFormatting>
